--- a/Database/hotel_management.xlsx
+++ b/Database/hotel_management.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="129">
   <si>
     <t>Table</t>
   </si>
@@ -418,6 +418,12 @@
   <si>
     <t>0 - Chưa trả
 1 - Đã trả</t>
+  </si>
+  <si>
+    <t>Người quản lý của nhân viên này</t>
+  </si>
+  <si>
+    <t>Yêu cầu của khách hàng</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1244,7 @@
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="31" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -2633,7 +2639,9 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="14"/>
+      <c r="M68" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
@@ -3207,9 +3215,13 @@
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
+      <c r="K97" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="L97" s="13"/>
-      <c r="M97" s="17"/>
+      <c r="M97" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/hotel_management.xlsx
+++ b/Database/hotel_management.xlsx
@@ -383,10 +383,6 @@
 1 - Vip</t>
   </si>
   <si>
-    <t>0 - Non empty
-1 - Empty</t>
-  </si>
-  <si>
     <t>FK(Table)</t>
   </si>
   <si>
@@ -424,6 +420,10 @@
   </si>
   <si>
     <t>Yêu cầu của khách hàng</t>
+  </si>
+  <si>
+    <t>0 - Empty
+1 - Not Empty</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
@@ -1800,7 +1800,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="L97" s="13"/>
       <c r="M97" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Database/hotel_management.xlsx
+++ b/Database/hotel_management.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="129">
   <si>
     <t>Table</t>
   </si>
@@ -447,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +463,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1675,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -1896,7 +1907,9 @@
         <v>55</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1914,7 +1927,9 @@
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
